--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="130">
   <si>
     <t>Comment</t>
   </si>
@@ -374,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>固件编译名用[env:DIY_900_TX_ESP32_SX127x_E19_via_UART]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537.1997196601.234.7a887484Tphkhj&amp;id=631670187241</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,6 +423,19 @@
   </si>
   <si>
     <t>贴片电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固件编译名用[env:DIY_900_TX_ESP32_SX127x_E19_via_UART] targets.h添加定义#define GPIO_PIN_LED_GREEN 27
+#define GPIO_PIN_FAN_EN 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,8 +867,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -896,7 +905,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42">
+    <row r="2" spans="1:7" ht="118.5" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>113</v>
@@ -914,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -936,6 +945,9 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
+      <c r="G3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="42">
       <c r="A4" s="3" t="s">
@@ -1197,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1225,7 +1237,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>50</v>
@@ -1234,7 +1246,7 @@
         <v>51</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -1245,7 +1257,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>54</v>
@@ -1260,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1325,7 +1337,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>49</v>
@@ -1365,7 +1377,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>49</v>
@@ -1385,7 +1397,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>49</v>
@@ -1405,7 +1417,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>49</v>
@@ -1485,10 +1497,10 @@
     </row>
     <row r="31" spans="1:7" ht="34" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>82</v>
@@ -1620,13 +1632,13 @@
     </row>
     <row r="37" spans="1:7" ht="33" customHeight="1">
       <c r="A37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="G37" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
